--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC16C7-15D7-C04D-9A9A-8A66F86C6A40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -36,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,246 +370,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>105050101</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>105050102</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>105050201</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>105050202</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105050301</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>105050302</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>105050401</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>105050402</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>105050501</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>105050502</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>105050601</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>105050602</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>105050701</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>105050702</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>105060101</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>105060102</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>105060201</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>105060202</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>105060301</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>105060302</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>105060401</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>105060402</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>105060501</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>105060502</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>105060601</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>105060602</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>105060701</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>105060702</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
         <v>16</v>
       </c>
     </row>
@@ -619,12 +708,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC16C7-15D7-C04D-9A9A-8A66F86C6A40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19275" firstSheet="0" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -56,11 +55,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4" x14ac:knownFonts="1">
+  <x:fonts count="5">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -81,6 +80,12 @@
       <x:family val="3"/>
       <x:charset val="128"/>
       <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="3"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -119,10 +124,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -405,27 +409,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:C29"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="D26" sqref="D26"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="10.253281" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultColWidth="15.210625" defaultRowHeight="18.75"/>
   <x:cols>
-    <x:col min="1" max="3" width="10.253281" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="3" width="15.210625" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s"/>
-      <x:c r="C1" s="3" t="s">
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
@@ -726,7 +730,7 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="29" spans="1:4">
       <x:c r="A29" s="0" t="n">
         <x:v>105060702</x:v>
       </x:c>
@@ -748,15 +752,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="10.253281" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultColWidth="15.210625" defaultRowHeight="18.75"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="n">

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
     <x:r>
       <x:rPr>
@@ -33,6 +33,22 @@
       </x:rPr>
       <x:t>ステージID</x:t>
     </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="3"/>
+      </x:rPr>
+      <x:t>ウェーブ数</x:t>
+    </x:r>
+    <x:rPh sb="4" eb="5">
+      <x:t>スウ</x:t>
+    </x:rPh>
     <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
@@ -415,36 +431,36 @@
   </x:sheetPr>
   <x:dimension ref="A1:C29"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D26" sqref="D26"/>
-    </x:sheetView>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="15.210625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="20.335625" defaultRowHeight="18.75"/>
   <x:cols>
-    <x:col min="1" max="3" width="15.210625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="3" width="20.335625" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s"/>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="n">
         <x:v>105050101</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4">
+    <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="n">
         <x:v>105050102</x:v>
       </x:c>
@@ -455,7 +471,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4">
+    <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="n">
         <x:v>105050201</x:v>
       </x:c>
@@ -466,7 +482,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4">
+    <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="n">
         <x:v>105050202</x:v>
       </x:c>
@@ -477,7 +493,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:4">
+    <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="n">
         <x:v>105050301</x:v>
       </x:c>
@@ -488,7 +504,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:4">
+    <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="n">
         <x:v>105050302</x:v>
       </x:c>
@@ -499,7 +515,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:4">
+    <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="n">
         <x:v>105050401</x:v>
       </x:c>
@@ -510,7 +526,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:4">
+    <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="n">
         <x:v>105050402</x:v>
       </x:c>
@@ -521,18 +537,18 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4">
+    <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="n">
         <x:v>105050501</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:4">
+    <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="n">
         <x:v>105050502</x:v>
       </x:c>
@@ -543,7 +559,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:4">
+    <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="n">
         <x:v>105050601</x:v>
       </x:c>
@@ -554,7 +570,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:4">
+    <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="n">
         <x:v>105050602</x:v>
       </x:c>
@@ -565,7 +581,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:4">
+    <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="n">
         <x:v>105050701</x:v>
       </x:c>
@@ -576,7 +592,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:4">
+    <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="n">
         <x:v>105050702</x:v>
       </x:c>
@@ -587,7 +603,7 @@
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:4">
+    <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="n">
         <x:v>105060101</x:v>
       </x:c>
@@ -598,7 +614,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:4">
+    <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="n">
         <x:v>105060102</x:v>
       </x:c>
@@ -609,18 +625,18 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:4">
+    <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="n">
         <x:v>105060201</x:v>
       </x:c>
       <x:c r="B18" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:4">
+    <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="n">
         <x:v>105060202</x:v>
       </x:c>
@@ -631,7 +647,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:4">
+    <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="n">
         <x:v>105060301</x:v>
       </x:c>
@@ -642,7 +658,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:4">
+    <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="n">
         <x:v>105060302</x:v>
       </x:c>
@@ -653,29 +669,29 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:4">
+    <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="n">
         <x:v>105060401</x:v>
       </x:c>
       <x:c r="B22" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:4">
+    <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="n">
         <x:v>105060402</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:4">
+    <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="n">
         <x:v>105060501</x:v>
       </x:c>
@@ -686,7 +702,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:4">
+    <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="n">
         <x:v>105060502</x:v>
       </x:c>
@@ -697,7 +713,7 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:4">
+    <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="n">
         <x:v>105060601</x:v>
       </x:c>
@@ -708,18 +724,18 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:4">
+    <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="n">
         <x:v>105060602</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:4">
+    <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="n">
         <x:v>105060701</x:v>
       </x:c>
@@ -730,12 +746,12 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:4">
+    <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="n">
         <x:v>105060702</x:v>
       </x:c>
       <x:c r="B29" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
         <x:v>16</x:v>
@@ -745,7 +761,7 @@
   <x:phoneticPr fontId="1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
@@ -760,7 +776,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="15.210625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="20.335625" defaultRowHeight="18.75"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="n">
@@ -791,7 +807,7 @@
         <x:v>105050101</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
@@ -812,34 +828,34 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="n">
-        <x:v>105050102</x:v>
+        <x:v>105050101</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="n">
-        <x:v>105050102</x:v>
+        <x:v>105050101</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="n">
-        <x:v>105050102</x:v>
+        <x:v>105050101</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="n">
-        <x:v>105050102</x:v>
+        <x:v>105050101</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
@@ -847,7 +863,7 @@
         <x:v>105050102</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
@@ -855,7 +871,7 @@
         <x:v>105050102</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
@@ -863,7 +879,7 @@
         <x:v>105050102</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
@@ -871,7 +887,7 @@
         <x:v>105050102</x:v>
       </x:c>
       <x:c r="B14" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
@@ -879,7 +895,7 @@
         <x:v>105050102</x:v>
       </x:c>
       <x:c r="B15" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
@@ -887,23 +903,23 @@
         <x:v>105050102</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="0" t="n">
-        <x:v>105050102</x:v>
+        <x:v>105050201</x:v>
       </x:c>
       <x:c r="B17" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="0" t="n">
-        <x:v>105050102</x:v>
+        <x:v>105050201</x:v>
       </x:c>
       <x:c r="B18" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
@@ -927,7 +943,7 @@
         <x:v>105050201</x:v>
       </x:c>
       <x:c r="B21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
@@ -935,76 +951,76 @@
         <x:v>105050201</x:v>
       </x:c>
       <x:c r="B22" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="0" t="n">
-        <x:v>105050201</x:v>
+        <x:v>105050202</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="0" t="n">
-        <x:v>105050201</x:v>
+        <x:v>105050202</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" s="0" t="n">
-        <x:v>105050201</x:v>
+        <x:v>105050202</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" s="0" t="n">
-        <x:v>105050201</x:v>
+        <x:v>105050202</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" s="0" t="n">
-        <x:v>105050201</x:v>
+        <x:v>105050202</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" s="0" t="n">
-        <x:v>105050201</x:v>
+        <x:v>105050202</x:v>
       </x:c>
       <x:c r="B28" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" s="0" t="n">
-        <x:v>105050201</x:v>
+        <x:v>105050301</x:v>
       </x:c>
       <x:c r="B29" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" s="0" t="n">
-        <x:v>105050201</x:v>
+        <x:v>105050301</x:v>
       </x:c>
       <x:c r="B30" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050301</x:v>
       </x:c>
       <x:c r="B31" s="0" t="n">
         <x:v>1</x:v>
@@ -1012,7 +1028,7 @@
     </x:row>
     <x:row r="32" spans="1:2">
       <x:c r="A32" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050301</x:v>
       </x:c>
       <x:c r="B32" s="0" t="n">
         <x:v>1</x:v>
@@ -1020,23 +1036,23 @@
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="A33" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050301</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050301</x:v>
       </x:c>
       <x:c r="B34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:2">
       <x:c r="A35" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050301</x:v>
       </x:c>
       <x:c r="B35" s="0" t="n">
         <x:v>2</x:v>
@@ -1044,63 +1060,63 @@
     </x:row>
     <x:row r="36" spans="1:2">
       <x:c r="A36" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050302</x:v>
       </x:c>
       <x:c r="B36" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:2">
       <x:c r="A37" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050302</x:v>
       </x:c>
       <x:c r="B37" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:2">
       <x:c r="A38" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050302</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:2">
       <x:c r="A39" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050302</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050302</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2">
       <x:c r="A41" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050302</x:v>
       </x:c>
       <x:c r="B41" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:2">
       <x:c r="A42" s="0" t="n">
-        <x:v>105050202</x:v>
+        <x:v>105050302</x:v>
       </x:c>
       <x:c r="B42" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:2">
       <x:c r="A43" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050401</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
         <x:v>1</x:v>
@@ -1108,7 +1124,7 @@
     </x:row>
     <x:row r="44" spans="1:2">
       <x:c r="A44" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050401</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
         <x:v>1</x:v>
@@ -1116,7 +1132,7 @@
     </x:row>
     <x:row r="45" spans="1:2">
       <x:c r="A45" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050401</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
         <x:v>1</x:v>
@@ -1124,7 +1140,7 @@
     </x:row>
     <x:row r="46" spans="1:2">
       <x:c r="A46" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050401</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
         <x:v>1</x:v>
@@ -1132,7 +1148,7 @@
     </x:row>
     <x:row r="47" spans="1:2">
       <x:c r="A47" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050401</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
         <x:v>2</x:v>
@@ -1140,7 +1156,7 @@
     </x:row>
     <x:row r="48" spans="1:2">
       <x:c r="A48" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050401</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
         <x:v>2</x:v>
@@ -1148,63 +1164,63 @@
     </x:row>
     <x:row r="49" spans="1:2">
       <x:c r="A49" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050402</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2">
       <x:c r="A50" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050402</x:v>
       </x:c>
       <x:c r="B50" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:2">
       <x:c r="A51" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050402</x:v>
       </x:c>
       <x:c r="B51" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:2">
       <x:c r="A52" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050402</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:2">
       <x:c r="A53" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050402</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:2">
       <x:c r="A54" s="0" t="n">
-        <x:v>105050301</x:v>
+        <x:v>105050402</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2">
       <x:c r="A55" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050402</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:2">
       <x:c r="A56" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050501</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
         <x:v>1</x:v>
@@ -1212,7 +1228,7 @@
     </x:row>
     <x:row r="57" spans="1:2">
       <x:c r="A57" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050501</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
         <x:v>1</x:v>
@@ -1220,7 +1236,7 @@
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="A58" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050501</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
         <x:v>1</x:v>
@@ -1228,79 +1244,79 @@
     </x:row>
     <x:row r="59" spans="1:2">
       <x:c r="A59" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050501</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:2">
       <x:c r="A60" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050501</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:2">
       <x:c r="A61" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050502</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:2">
       <x:c r="A62" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050502</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:2">
       <x:c r="A63" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050502</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2">
       <x:c r="A64" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050502</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:2">
       <x:c r="A65" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050502</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:2">
       <x:c r="A66" s="0" t="n">
-        <x:v>105050302</x:v>
+        <x:v>105050502</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:2">
       <x:c r="A67" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050502</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:2">
       <x:c r="A68" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050601</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
         <x:v>1</x:v>
@@ -1308,7 +1324,7 @@
     </x:row>
     <x:row r="69" spans="1:2">
       <x:c r="A69" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050601</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
         <x:v>1</x:v>
@@ -1316,7 +1332,7 @@
     </x:row>
     <x:row r="70" spans="1:2">
       <x:c r="A70" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050601</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
         <x:v>1</x:v>
@@ -1324,23 +1340,23 @@
     </x:row>
     <x:row r="71" spans="1:2">
       <x:c r="A71" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050601</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:2">
       <x:c r="A72" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050601</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:2">
       <x:c r="A73" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050601</x:v>
       </x:c>
       <x:c r="B73" s="0" t="n">
         <x:v>2</x:v>
@@ -1348,7 +1364,7 @@
     </x:row>
     <x:row r="74" spans="1:2">
       <x:c r="A74" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050601</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
         <x:v>2</x:v>
@@ -1356,39 +1372,39 @@
     </x:row>
     <x:row r="75" spans="1:2">
       <x:c r="A75" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050601</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:2">
       <x:c r="A76" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050602</x:v>
       </x:c>
       <x:c r="B76" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:2">
       <x:c r="A77" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050602</x:v>
       </x:c>
       <x:c r="B77" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:2">
       <x:c r="A78" s="0" t="n">
-        <x:v>105050401</x:v>
+        <x:v>105050602</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:2">
       <x:c r="A79" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050602</x:v>
       </x:c>
       <x:c r="B79" s="0" t="n">
         <x:v>1</x:v>
@@ -1396,7 +1412,7 @@
     </x:row>
     <x:row r="80" spans="1:2">
       <x:c r="A80" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050602</x:v>
       </x:c>
       <x:c r="B80" s="0" t="n">
         <x:v>1</x:v>
@@ -1404,23 +1420,23 @@
     </x:row>
     <x:row r="81" spans="1:2">
       <x:c r="A81" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050602</x:v>
       </x:c>
       <x:c r="B81" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:2">
       <x:c r="A82" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050602</x:v>
       </x:c>
       <x:c r="B82" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:2">
       <x:c r="A83" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050602</x:v>
       </x:c>
       <x:c r="B83" s="0" t="n">
         <x:v>2</x:v>
@@ -1428,71 +1444,71 @@
     </x:row>
     <x:row r="84" spans="1:2">
       <x:c r="A84" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050701</x:v>
       </x:c>
       <x:c r="B84" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:2">
       <x:c r="A85" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050701</x:v>
       </x:c>
       <x:c r="B85" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:2">
       <x:c r="A86" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050701</x:v>
       </x:c>
       <x:c r="B86" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:2">
       <x:c r="A87" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050701</x:v>
       </x:c>
       <x:c r="B87" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:2">
       <x:c r="A88" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050701</x:v>
       </x:c>
       <x:c r="B88" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:2">
       <x:c r="A89" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050701</x:v>
       </x:c>
       <x:c r="B89" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:2">
       <x:c r="A90" s="0" t="n">
-        <x:v>105050402</x:v>
+        <x:v>105050701</x:v>
       </x:c>
       <x:c r="B90" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:2">
       <x:c r="A91" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050701</x:v>
       </x:c>
       <x:c r="B91" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:2">
       <x:c r="A92" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B92" s="0" t="n">
         <x:v>1</x:v>
@@ -1500,7 +1516,7 @@
     </x:row>
     <x:row r="93" spans="1:2">
       <x:c r="A93" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B93" s="0" t="n">
         <x:v>1</x:v>
@@ -1508,7 +1524,7 @@
     </x:row>
     <x:row r="94" spans="1:2">
       <x:c r="A94" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B94" s="0" t="n">
         <x:v>1</x:v>
@@ -1516,7 +1532,7 @@
     </x:row>
     <x:row r="95" spans="1:2">
       <x:c r="A95" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B95" s="0" t="n">
         <x:v>1</x:v>
@@ -1524,23 +1540,23 @@
     </x:row>
     <x:row r="96" spans="1:2">
       <x:c r="A96" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B96" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B97" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B98" s="0" t="n">
         <x:v>2</x:v>
@@ -1548,7 +1564,7 @@
     </x:row>
     <x:row r="99" spans="1:2">
       <x:c r="A99" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B99" s="0" t="n">
         <x:v>2</x:v>
@@ -1556,7 +1572,7 @@
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B100" s="0" t="n">
         <x:v>2</x:v>
@@ -1564,87 +1580,87 @@
     </x:row>
     <x:row r="101" spans="1:2">
       <x:c r="A101" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B101" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:2">
       <x:c r="A102" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105050702</x:v>
       </x:c>
       <x:c r="B102" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:2">
       <x:c r="A103" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105060101</x:v>
       </x:c>
       <x:c r="B103" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:2">
       <x:c r="A104" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105060101</x:v>
       </x:c>
       <x:c r="B104" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:2">
       <x:c r="A105" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105060101</x:v>
       </x:c>
       <x:c r="B105" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:2">
       <x:c r="A106" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105060101</x:v>
       </x:c>
       <x:c r="B106" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:2">
       <x:c r="A107" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105060101</x:v>
       </x:c>
       <x:c r="B107" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:2">
       <x:c r="A108" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105060101</x:v>
       </x:c>
       <x:c r="B108" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:2">
       <x:c r="A109" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105060102</x:v>
       </x:c>
       <x:c r="B109" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:2">
       <x:c r="A110" s="0" t="n">
-        <x:v>105050501</x:v>
+        <x:v>105060102</x:v>
       </x:c>
       <x:c r="B110" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:2">
       <x:c r="A111" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060102</x:v>
       </x:c>
       <x:c r="B111" s="0" t="n">
         <x:v>1</x:v>
@@ -1652,7 +1668,7 @@
     </x:row>
     <x:row r="112" spans="1:2">
       <x:c r="A112" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060102</x:v>
       </x:c>
       <x:c r="B112" s="0" t="n">
         <x:v>1</x:v>
@@ -1660,47 +1676,47 @@
     </x:row>
     <x:row r="113" spans="1:2">
       <x:c r="A113" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060102</x:v>
       </x:c>
       <x:c r="B113" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:2">
       <x:c r="A114" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060102</x:v>
       </x:c>
       <x:c r="B114" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:2">
       <x:c r="A115" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060201</x:v>
       </x:c>
       <x:c r="B115" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:2">
       <x:c r="A116" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060201</x:v>
       </x:c>
       <x:c r="B116" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:2">
       <x:c r="A117" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060201</x:v>
       </x:c>
       <x:c r="B117" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:2">
       <x:c r="A118" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060201</x:v>
       </x:c>
       <x:c r="B118" s="0" t="n">
         <x:v>2</x:v>
@@ -1708,39 +1724,39 @@
     </x:row>
     <x:row r="119" spans="1:2">
       <x:c r="A119" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060201</x:v>
       </x:c>
       <x:c r="B119" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:2">
       <x:c r="A120" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060201</x:v>
       </x:c>
       <x:c r="B120" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:2">
       <x:c r="A121" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060202</x:v>
       </x:c>
       <x:c r="B121" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:2">
       <x:c r="A122" s="0" t="n">
-        <x:v>105050502</x:v>
+        <x:v>105060202</x:v>
       </x:c>
       <x:c r="B122" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:2">
       <x:c r="A123" s="0" t="n">
-        <x:v>105050601</x:v>
+        <x:v>105060202</x:v>
       </x:c>
       <x:c r="B123" s="0" t="n">
         <x:v>1</x:v>
@@ -1748,7 +1764,7 @@
     </x:row>
     <x:row r="124" spans="1:2">
       <x:c r="A124" s="0" t="n">
-        <x:v>105050601</x:v>
+        <x:v>105060202</x:v>
       </x:c>
       <x:c r="B124" s="0" t="n">
         <x:v>1</x:v>
@@ -1756,15 +1772,15 @@
     </x:row>
     <x:row r="125" spans="1:2">
       <x:c r="A125" s="0" t="n">
-        <x:v>105050601</x:v>
+        <x:v>105060202</x:v>
       </x:c>
       <x:c r="B125" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:2">
       <x:c r="A126" s="0" t="n">
-        <x:v>105050601</x:v>
+        <x:v>105060202</x:v>
       </x:c>
       <x:c r="B126" s="0" t="n">
         <x:v>2</x:v>
@@ -1772,7 +1788,7 @@
     </x:row>
     <x:row r="127" spans="1:2">
       <x:c r="A127" s="0" t="n">
-        <x:v>105050601</x:v>
+        <x:v>105060202</x:v>
       </x:c>
       <x:c r="B127" s="0" t="n">
         <x:v>2</x:v>
@@ -1780,15 +1796,15 @@
     </x:row>
     <x:row r="128" spans="1:2">
       <x:c r="A128" s="0" t="n">
-        <x:v>105050601</x:v>
+        <x:v>105060301</x:v>
       </x:c>
       <x:c r="B128" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:2">
       <x:c r="A129" s="0" t="n">
-        <x:v>105050602</x:v>
+        <x:v>105060301</x:v>
       </x:c>
       <x:c r="B129" s="0" t="n">
         <x:v>1</x:v>
@@ -1796,7 +1812,7 @@
     </x:row>
     <x:row r="130" spans="1:2">
       <x:c r="A130" s="0" t="n">
-        <x:v>105050602</x:v>
+        <x:v>105060301</x:v>
       </x:c>
       <x:c r="B130" s="0" t="n">
         <x:v>1</x:v>
@@ -1804,7 +1820,7 @@
     </x:row>
     <x:row r="131" spans="1:2">
       <x:c r="A131" s="0" t="n">
-        <x:v>105050602</x:v>
+        <x:v>105060301</x:v>
       </x:c>
       <x:c r="B131" s="0" t="n">
         <x:v>1</x:v>
@@ -1812,15 +1828,15 @@
     </x:row>
     <x:row r="132" spans="1:2">
       <x:c r="A132" s="0" t="n">
-        <x:v>105050602</x:v>
+        <x:v>105060301</x:v>
       </x:c>
       <x:c r="B132" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:2">
       <x:c r="A133" s="0" t="n">
-        <x:v>105050602</x:v>
+        <x:v>105060301</x:v>
       </x:c>
       <x:c r="B133" s="0" t="n">
         <x:v>2</x:v>
@@ -1828,7 +1844,7 @@
     </x:row>
     <x:row r="134" spans="1:2">
       <x:c r="A134" s="0" t="n">
-        <x:v>105050602</x:v>
+        <x:v>105060301</x:v>
       </x:c>
       <x:c r="B134" s="0" t="n">
         <x:v>2</x:v>
@@ -1836,15 +1852,15 @@
     </x:row>
     <x:row r="135" spans="1:2">
       <x:c r="A135" s="0" t="n">
-        <x:v>105050701</x:v>
+        <x:v>105060301</x:v>
       </x:c>
       <x:c r="B135" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:2">
       <x:c r="A136" s="0" t="n">
-        <x:v>105050701</x:v>
+        <x:v>105060302</x:v>
       </x:c>
       <x:c r="B136" s="0" t="n">
         <x:v>1</x:v>
@@ -1852,7 +1868,7 @@
     </x:row>
     <x:row r="137" spans="1:2">
       <x:c r="A137" s="0" t="n">
-        <x:v>105050701</x:v>
+        <x:v>105060302</x:v>
       </x:c>
       <x:c r="B137" s="0" t="n">
         <x:v>1</x:v>
@@ -1860,23 +1876,23 @@
     </x:row>
     <x:row r="138" spans="1:2">
       <x:c r="A138" s="0" t="n">
-        <x:v>105050701</x:v>
+        <x:v>105060302</x:v>
       </x:c>
       <x:c r="B138" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:2">
       <x:c r="A139" s="0" t="n">
-        <x:v>105050701</x:v>
+        <x:v>105060302</x:v>
       </x:c>
       <x:c r="B139" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:2">
       <x:c r="A140" s="0" t="n">
-        <x:v>105050701</x:v>
+        <x:v>105060302</x:v>
       </x:c>
       <x:c r="B140" s="0" t="n">
         <x:v>2</x:v>
@@ -1884,23 +1900,23 @@
     </x:row>
     <x:row r="141" spans="1:2">
       <x:c r="A141" s="0" t="n">
-        <x:v>105050702</x:v>
+        <x:v>105060302</x:v>
       </x:c>
       <x:c r="B141" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:2">
       <x:c r="A142" s="0" t="n">
-        <x:v>105050702</x:v>
+        <x:v>105060302</x:v>
       </x:c>
       <x:c r="B142" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:2">
       <x:c r="A143" s="0" t="n">
-        <x:v>105050702</x:v>
+        <x:v>105060401</x:v>
       </x:c>
       <x:c r="B143" s="0" t="n">
         <x:v>1</x:v>
@@ -1908,23 +1924,23 @@
     </x:row>
     <x:row r="144" spans="1:2">
       <x:c r="A144" s="0" t="n">
-        <x:v>105050702</x:v>
+        <x:v>105060401</x:v>
       </x:c>
       <x:c r="B144" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:2">
       <x:c r="A145" s="0" t="n">
-        <x:v>105050702</x:v>
+        <x:v>105060401</x:v>
       </x:c>
       <x:c r="B145" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:2">
       <x:c r="A146" s="0" t="n">
-        <x:v>105050702</x:v>
+        <x:v>105060401</x:v>
       </x:c>
       <x:c r="B146" s="0" t="n">
         <x:v>2</x:v>
@@ -1932,31 +1948,31 @@
     </x:row>
     <x:row r="147" spans="1:2">
       <x:c r="A147" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060401</x:v>
       </x:c>
       <x:c r="B147" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:2">
       <x:c r="A148" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060401</x:v>
       </x:c>
       <x:c r="B148" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:2">
       <x:c r="A149" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060401</x:v>
       </x:c>
       <x:c r="B149" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:2">
       <x:c r="A150" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B150" s="0" t="n">
         <x:v>1</x:v>
@@ -1964,71 +1980,71 @@
     </x:row>
     <x:row r="151" spans="1:2">
       <x:c r="A151" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B151" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:2">
       <x:c r="A152" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B152" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:2">
       <x:c r="A153" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B153" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:2">
       <x:c r="A154" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B154" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:2">
       <x:c r="A155" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B155" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:2">
       <x:c r="A156" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B156" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:2">
       <x:c r="A157" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B157" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:2">
       <x:c r="A158" s="0" t="n">
-        <x:v>105060101</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B158" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:2">
       <x:c r="A159" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B159" s="0" t="n">
         <x:v>1</x:v>
@@ -2036,31 +2052,31 @@
     </x:row>
     <x:row r="160" spans="1:2">
       <x:c r="A160" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B160" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:2">
       <x:c r="A161" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B161" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:2">
       <x:c r="A162" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B162" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:2">
       <x:c r="A163" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B163" s="0" t="n">
         <x:v>2</x:v>
@@ -2068,7 +2084,7 @@
     </x:row>
     <x:row r="164" spans="1:2">
       <x:c r="A164" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B164" s="0" t="n">
         <x:v>2</x:v>
@@ -2076,7 +2092,7 @@
     </x:row>
     <x:row r="165" spans="1:2">
       <x:c r="A165" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B165" s="0" t="n">
         <x:v>2</x:v>
@@ -2084,7 +2100,7 @@
     </x:row>
     <x:row r="166" spans="1:2">
       <x:c r="A166" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B166" s="0" t="n">
         <x:v>2</x:v>
@@ -2092,31 +2108,31 @@
     </x:row>
     <x:row r="167" spans="1:2">
       <x:c r="A167" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B167" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:2">
       <x:c r="A168" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B168" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:2">
       <x:c r="A169" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B169" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:2">
       <x:c r="A170" s="0" t="n">
-        <x:v>105060102</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B170" s="0" t="n">
         <x:v>3</x:v>
@@ -2124,119 +2140,119 @@
     </x:row>
     <x:row r="171" spans="1:2">
       <x:c r="A171" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:2">
       <x:c r="A172" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B172" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:2">
       <x:c r="A173" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B173" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:2">
       <x:c r="A174" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B174" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:2">
       <x:c r="A175" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B175" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:2">
       <x:c r="A176" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060402</x:v>
       </x:c>
       <x:c r="B176" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:2">
       <x:c r="A177" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060501</x:v>
       </x:c>
       <x:c r="B177" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:2">
       <x:c r="A178" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060501</x:v>
       </x:c>
       <x:c r="B178" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:2">
       <x:c r="A179" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060501</x:v>
       </x:c>
       <x:c r="B179" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:2">
       <x:c r="A180" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060501</x:v>
       </x:c>
       <x:c r="B180" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:2">
       <x:c r="A181" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060501</x:v>
       </x:c>
       <x:c r="B181" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:2">
       <x:c r="A182" s="0" t="n">
-        <x:v>105060201</x:v>
+        <x:v>105060501</x:v>
       </x:c>
       <x:c r="B182" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:2">
       <x:c r="A183" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060501</x:v>
       </x:c>
       <x:c r="B183" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:2">
       <x:c r="A184" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060501</x:v>
       </x:c>
       <x:c r="B184" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:2">
       <x:c r="A185" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060502</x:v>
       </x:c>
       <x:c r="B185" s="0" t="n">
         <x:v>1</x:v>
@@ -2244,7 +2260,7 @@
     </x:row>
     <x:row r="186" spans="1:2">
       <x:c r="A186" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060502</x:v>
       </x:c>
       <x:c r="B186" s="0" t="n">
         <x:v>1</x:v>
@@ -2252,31 +2268,31 @@
     </x:row>
     <x:row r="187" spans="1:2">
       <x:c r="A187" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060502</x:v>
       </x:c>
       <x:c r="B187" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:2">
       <x:c r="A188" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060502</x:v>
       </x:c>
       <x:c r="B188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:2">
       <x:c r="A189" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060502</x:v>
       </x:c>
       <x:c r="B189" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:2">
       <x:c r="A190" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060502</x:v>
       </x:c>
       <x:c r="B190" s="0" t="n">
         <x:v>2</x:v>
@@ -2284,39 +2300,39 @@
     </x:row>
     <x:row r="191" spans="1:2">
       <x:c r="A191" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060502</x:v>
       </x:c>
       <x:c r="B191" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:2">
       <x:c r="A192" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060502</x:v>
       </x:c>
       <x:c r="B192" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:2">
       <x:c r="A193" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060502</x:v>
       </x:c>
       <x:c r="B193" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:2">
       <x:c r="A194" s="0" t="n">
-        <x:v>105060202</x:v>
+        <x:v>105060601</x:v>
       </x:c>
       <x:c r="B194" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:2">
       <x:c r="A195" s="0" t="n">
-        <x:v>105060301</x:v>
+        <x:v>105060601</x:v>
       </x:c>
       <x:c r="B195" s="0" t="n">
         <x:v>1</x:v>
@@ -2324,7 +2340,7 @@
     </x:row>
     <x:row r="196" spans="1:2">
       <x:c r="A196" s="0" t="n">
-        <x:v>105060301</x:v>
+        <x:v>105060601</x:v>
       </x:c>
       <x:c r="B196" s="0" t="n">
         <x:v>1</x:v>
@@ -2332,7 +2348,7 @@
     </x:row>
     <x:row r="197" spans="1:2">
       <x:c r="A197" s="0" t="n">
-        <x:v>105060301</x:v>
+        <x:v>105060601</x:v>
       </x:c>
       <x:c r="B197" s="0" t="n">
         <x:v>1</x:v>
@@ -2340,15 +2356,15 @@
     </x:row>
     <x:row r="198" spans="1:2">
       <x:c r="A198" s="0" t="n">
-        <x:v>105060301</x:v>
+        <x:v>105060601</x:v>
       </x:c>
       <x:c r="B198" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:2">
       <x:c r="A199" s="0" t="n">
-        <x:v>105060301</x:v>
+        <x:v>105060601</x:v>
       </x:c>
       <x:c r="B199" s="0" t="n">
         <x:v>2</x:v>
@@ -2356,7 +2372,7 @@
     </x:row>
     <x:row r="200" spans="1:2">
       <x:c r="A200" s="0" t="n">
-        <x:v>105060301</x:v>
+        <x:v>105060601</x:v>
       </x:c>
       <x:c r="B200" s="0" t="n">
         <x:v>2</x:v>
@@ -2364,15 +2380,15 @@
     </x:row>
     <x:row r="201" spans="1:2">
       <x:c r="A201" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060601</x:v>
       </x:c>
       <x:c r="B201" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:2">
       <x:c r="A202" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060602</x:v>
       </x:c>
       <x:c r="B202" s="0" t="n">
         <x:v>1</x:v>
@@ -2380,7 +2396,7 @@
     </x:row>
     <x:row r="203" spans="1:2">
       <x:c r="A203" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060602</x:v>
       </x:c>
       <x:c r="B203" s="0" t="n">
         <x:v>1</x:v>
@@ -2388,7 +2404,7 @@
     </x:row>
     <x:row r="204" spans="1:2">
       <x:c r="A204" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060602</x:v>
       </x:c>
       <x:c r="B204" s="0" t="n">
         <x:v>1</x:v>
@@ -2396,71 +2412,71 @@
     </x:row>
     <x:row r="205" spans="1:2">
       <x:c r="A205" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060602</x:v>
       </x:c>
       <x:c r="B205" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:2">
       <x:c r="A206" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060602</x:v>
       </x:c>
       <x:c r="B206" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:2">
       <x:c r="A207" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060602</x:v>
       </x:c>
       <x:c r="B207" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:2">
       <x:c r="A208" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060602</x:v>
       </x:c>
       <x:c r="B208" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:2">
       <x:c r="A209" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060602</x:v>
       </x:c>
       <x:c r="B209" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:2">
       <x:c r="A210" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060602</x:v>
       </x:c>
       <x:c r="B210" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:2">
       <x:c r="A211" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060701</x:v>
       </x:c>
       <x:c r="B211" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:2">
       <x:c r="A212" s="0" t="n">
-        <x:v>105060302</x:v>
+        <x:v>105060701</x:v>
       </x:c>
       <x:c r="B212" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:2">
       <x:c r="A213" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060701</x:v>
       </x:c>
       <x:c r="B213" s="0" t="n">
         <x:v>1</x:v>
@@ -2468,7 +2484,7 @@
     </x:row>
     <x:row r="214" spans="1:2">
       <x:c r="A214" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060701</x:v>
       </x:c>
       <x:c r="B214" s="0" t="n">
         <x:v>1</x:v>
@@ -2476,7 +2492,7 @@
     </x:row>
     <x:row r="215" spans="1:2">
       <x:c r="A215" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060701</x:v>
       </x:c>
       <x:c r="B215" s="0" t="n">
         <x:v>1</x:v>
@@ -2484,7 +2500,7 @@
     </x:row>
     <x:row r="216" spans="1:2">
       <x:c r="A216" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060701</x:v>
       </x:c>
       <x:c r="B216" s="0" t="n">
         <x:v>1</x:v>
@@ -2492,7 +2508,7 @@
     </x:row>
     <x:row r="217" spans="1:2">
       <x:c r="A217" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060701</x:v>
       </x:c>
       <x:c r="B217" s="0" t="n">
         <x:v>2</x:v>
@@ -2500,7 +2516,7 @@
     </x:row>
     <x:row r="218" spans="1:2">
       <x:c r="A218" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060701</x:v>
       </x:c>
       <x:c r="B218" s="0" t="n">
         <x:v>2</x:v>
@@ -2508,7 +2524,7 @@
     </x:row>
     <x:row r="219" spans="1:2">
       <x:c r="A219" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060701</x:v>
       </x:c>
       <x:c r="B219" s="0" t="n">
         <x:v>2</x:v>
@@ -2516,7 +2532,7 @@
     </x:row>
     <x:row r="220" spans="1:2">
       <x:c r="A220" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060701</x:v>
       </x:c>
       <x:c r="B220" s="0" t="n">
         <x:v>2</x:v>
@@ -2524,39 +2540,39 @@
     </x:row>
     <x:row r="221" spans="1:2">
       <x:c r="A221" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B221" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:2">
       <x:c r="A222" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B222" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:2">
       <x:c r="A223" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B223" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:2">
       <x:c r="A224" s="0" t="n">
-        <x:v>105060401</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B224" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:2">
       <x:c r="A225" s="0" t="n">
-        <x:v>105060402</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B225" s="0" t="n">
         <x:v>1</x:v>
@@ -2564,7 +2580,7 @@
     </x:row>
     <x:row r="226" spans="1:2">
       <x:c r="A226" s="0" t="n">
-        <x:v>105060402</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B226" s="0" t="n">
         <x:v>1</x:v>
@@ -2572,31 +2588,31 @@
     </x:row>
     <x:row r="227" spans="1:2">
       <x:c r="A227" s="0" t="n">
-        <x:v>105060501</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B227" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:2">
       <x:c r="A228" s="0" t="n">
-        <x:v>105060501</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B228" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:2">
       <x:c r="A229" s="0" t="n">
-        <x:v>105060501</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B229" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:2">
       <x:c r="A230" s="0" t="n">
-        <x:v>105060501</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B230" s="0" t="n">
         <x:v>2</x:v>
@@ -2604,7 +2620,7 @@
     </x:row>
     <x:row r="231" spans="1:2">
       <x:c r="A231" s="0" t="n">
-        <x:v>105060501</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B231" s="0" t="n">
         <x:v>2</x:v>
@@ -2612,7 +2628,7 @@
     </x:row>
     <x:row r="232" spans="1:2">
       <x:c r="A232" s="0" t="n">
-        <x:v>105060501</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B232" s="0" t="n">
         <x:v>2</x:v>
@@ -2620,210 +2636,34 @@
     </x:row>
     <x:row r="233" spans="1:2">
       <x:c r="A233" s="0" t="n">
-        <x:v>105060502</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B233" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:2">
       <x:c r="A234" s="0" t="n">
-        <x:v>105060502</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B234" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:2">
       <x:c r="A235" s="0" t="n">
-        <x:v>105060502</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B235" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:2">
       <x:c r="A236" s="0" t="n">
-        <x:v>105060502</x:v>
+        <x:v>105060702</x:v>
       </x:c>
       <x:c r="B236" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="237" spans="1:2">
-      <x:c r="A237" s="0" t="n">
-        <x:v>105060502</x:v>
-      </x:c>
-      <x:c r="B237" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="238" spans="1:2">
-      <x:c r="A238" s="0" t="n">
-        <x:v>105060502</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="239" spans="1:2">
-      <x:c r="A239" s="0" t="n">
-        <x:v>105060601</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="240" spans="1:2">
-      <x:c r="A240" s="0" t="n">
-        <x:v>105060601</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="241" spans="1:2">
-      <x:c r="A241" s="0" t="n">
-        <x:v>105060601</x:v>
-      </x:c>
-      <x:c r="B241" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="242" spans="1:2">
-      <x:c r="A242" s="0" t="n">
-        <x:v>105060601</x:v>
-      </x:c>
-      <x:c r="B242" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="243" spans="1:2">
-      <x:c r="A243" s="0" t="n">
-        <x:v>105060601</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="244" spans="1:2">
-      <x:c r="A244" s="0" t="n">
-        <x:v>105060601</x:v>
-      </x:c>
-      <x:c r="B244" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="245" spans="1:2">
-      <x:c r="A245" s="0" t="n">
-        <x:v>105060602</x:v>
-      </x:c>
-      <x:c r="B245" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="246" spans="1:2">
-      <x:c r="A246" s="0" t="n">
-        <x:v>105060602</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="247" spans="1:2">
-      <x:c r="A247" s="0" t="n">
-        <x:v>105060602</x:v>
-      </x:c>
-      <x:c r="B247" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="248" spans="1:2">
-      <x:c r="A248" s="0" t="n">
-        <x:v>105060602</x:v>
-      </x:c>
-      <x:c r="B248" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="249" spans="1:2">
-      <x:c r="A249" s="0" t="n">
-        <x:v>105060602</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="250" spans="1:2">
-      <x:c r="A250" s="0" t="n">
-        <x:v>105060602</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="251" spans="1:2">
-      <x:c r="A251" s="0" t="n">
-        <x:v>105060701</x:v>
-      </x:c>
-      <x:c r="B251" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="252" spans="1:2">
-      <x:c r="A252" s="0" t="n">
-        <x:v>105060701</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="253" spans="1:2">
-      <x:c r="A253" s="0" t="n">
-        <x:v>105060701</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="254" spans="1:2">
-      <x:c r="A254" s="0" t="n">
-        <x:v>105060701</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="255" spans="1:2">
-      <x:c r="A255" s="0" t="n">
-        <x:v>105060701</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="256" spans="1:2">
-      <x:c r="A256" s="0" t="n">
-        <x:v>105060701</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="257" spans="1:2">
-      <x:c r="A257" s="0" t="n">
-        <x:v>105060702</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="258" spans="1:2">
-      <x:c r="A258" s="0" t="n">
-        <x:v>105060702</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
